--- a/daily-scrum-meeting-template.xlsx
+++ b/daily-scrum-meeting-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="8_{B6EB67BE-81C3-437A-9A70-76C0DCA98807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB0C5C9-C057-420D-BC2F-43FD698EAB18}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="8_{B6EB67BE-81C3-437A-9A70-76C0DCA98807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F570D63B-1F48-4A82-889D-666EC0B39BBA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="13875" windowHeight="20265" tabRatio="844" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="844" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="45">
   <si>
     <t>PROJECT MANAGER</t>
   </si>
@@ -170,6 +170,12 @@
   <si>
     <t>Running total</t>
   </si>
+  <si>
+    <t>Nil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lectures and Meetings.  PM Forum. Emails to clients and </t>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -288,43 +294,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,58 +409,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -500,39 +443,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -915,10 +841,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K26"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K26"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -929,19 +855,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -966,13 +895,13 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -984,14 +913,14 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="38">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1001,11 +930,15 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1" t="e">
+        <f>I9/I27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1015,11 +948,11 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1031,14 +964,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="38">
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1048,11 +981,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1062,11 +995,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1078,14 +1011,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38">
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1095,11 +1028,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1109,11 +1042,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1125,14 +1058,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38">
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1142,11 +1075,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1156,11 +1089,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1172,14 +1105,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38">
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1189,11 +1122,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1203,11 +1136,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1219,14 +1152,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38">
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1236,11 +1169,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1250,11 +1183,28 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I27" s="14"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="J12:K14"/>
@@ -1263,17 +1213,6 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1285,10 +1224,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K27"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1299,7 +1238,7 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1313,8 +1252,8 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1339,13 +1278,13 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1366,17 +1305,17 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="21">
         <f>I9</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1395,12 +1334,16 @@
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1">
+        <f>I9/I27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,12 +1362,12 @@
       <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1435,15 +1378,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f t="shared" ref="J12" si="0">I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1452,12 +1395,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1466,12 +1409,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1482,15 +1425,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f t="shared" ref="J15" si="1">I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1499,12 +1442,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1513,12 +1456,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1529,15 +1472,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f t="shared" ref="J18" si="2">I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1546,12 +1489,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1560,12 +1503,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1576,15 +1519,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f t="shared" ref="J21" si="3">I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="30"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1593,12 +1536,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1607,12 +1550,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1623,15 +1566,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f t="shared" ref="J24" si="4">I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1640,12 +1583,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1654,20 +1597,20 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="40">
+      <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K27" s="39"/>
+      <c r="K27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1703,10 +1646,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K27"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1717,19 +1660,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1754,13 +1700,13 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1781,17 +1727,17 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="18">
         <v>0.22222222222222221</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1810,12 +1756,16 @@
       <c r="H10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1">
+        <f>I9/I27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1834,12 +1784,12 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1850,15 +1800,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1867,12 +1817,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1881,12 +1831,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1897,15 +1847,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1914,12 +1864,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1928,12 +1878,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1944,15 +1894,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1961,12 +1911,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1975,12 +1925,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1991,15 +1941,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="30"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2008,12 +1958,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2022,12 +1972,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2038,15 +1988,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2055,12 +2005,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2069,23 +2019,24 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="40">
+      <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K27" s="39"/>
+      <c r="K27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:K6"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
@@ -2102,7 +2053,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
@@ -2117,10 +2067,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K27"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2131,19 +2081,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2168,19 +2121,19 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -2195,17 +2148,17 @@
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="18">
         <v>0.27083333333333331</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2225,11 +2178,15 @@
         <v>39</v>
       </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1">
+        <f>I9/I27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2249,11 +2206,11 @@
         <v>25</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2265,14 +2222,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="38">
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2282,11 +2239,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2296,11 +2253,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2312,14 +2269,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38">
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2329,11 +2286,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2343,11 +2300,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2359,14 +2316,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38">
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2376,11 +2333,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2390,11 +2347,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2406,14 +2363,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38">
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2423,11 +2380,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2437,11 +2394,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2453,14 +2410,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38">
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2470,11 +2427,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2484,22 +2441,23 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="42">
+      <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K27" s="39"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:K6"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
@@ -2514,7 +2472,6 @@
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
@@ -2531,10 +2488,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K27"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2545,19 +2502,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2582,13 +2542,13 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2609,17 +2569,17 @@
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="18">
         <v>0.19444444444444445</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2639,11 +2599,15 @@
         <v>30</v>
       </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1">
+        <f>I9/I27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2663,11 +2627,11 @@
         <v>34</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2679,14 +2643,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="38">
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2696,11 +2660,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2710,11 +2674,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2726,14 +2690,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38">
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2743,11 +2707,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2757,11 +2721,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2773,14 +2737,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38">
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2790,11 +2754,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2804,11 +2768,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2820,14 +2784,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38">
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2837,11 +2801,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2851,11 +2815,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2867,14 +2831,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38">
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2884,11 +2848,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2898,22 +2862,23 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="I27" s="42">
+      <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K27" s="39"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B6:K6"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
@@ -2928,7 +2893,6 @@
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
@@ -2945,10 +2909,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K27"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:K20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2959,19 +2923,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2996,60 +2963,72 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="38">
+      <c r="I9" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1">
+        <f>I9/I27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3061,14 +3040,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="38">
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3078,11 +3057,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3092,11 +3071,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3108,14 +3087,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38">
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3125,11 +3104,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3139,11 +3118,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3155,14 +3134,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38">
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3172,11 +3151,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3186,11 +3165,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3202,14 +3181,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38">
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3219,11 +3198,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3233,11 +3212,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3249,14 +3228,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38">
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3266,11 +3245,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3280,19 +3259,19 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="I27">
+      <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="K27" s="39"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3303,19 +3282,19 @@
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="J18:K20"/>
     <mergeCell ref="J21:K23"/>
+    <mergeCell ref="B6:K6"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I24:I26"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B6:H6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I24:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3327,10 +3306,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K26"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K26"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3341,19 +3320,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3378,13 +3360,13 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3396,14 +3378,14 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="38">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3413,11 +3395,15 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1" t="e">
+        <f>I9/I27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3427,11 +3413,11 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3443,14 +3429,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="38">
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3460,11 +3446,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3474,11 +3460,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3490,14 +3476,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38">
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3507,11 +3493,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3521,11 +3507,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3537,14 +3523,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38">
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3554,11 +3540,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3568,11 +3554,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3584,14 +3570,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38">
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3601,11 +3587,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3615,11 +3601,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3631,14 +3617,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38">
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3648,11 +3634,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3662,11 +3648,34 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I27" s="14">
+        <f>SUM(I9:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
+        <f>SUM(J9:K26)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="J12:K14"/>
@@ -3675,17 +3684,6 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3697,10 +3695,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K26"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K26"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3711,19 +3709,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3748,13 +3749,13 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3766,14 +3767,14 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="38">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3783,11 +3784,15 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1" t="e">
+        <f>I9/I27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3797,11 +3802,11 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3813,14 +3818,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="38">
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3830,11 +3835,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3844,11 +3849,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3860,14 +3865,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38">
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3877,11 +3882,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3891,11 +3896,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3907,14 +3912,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38">
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3924,11 +3929,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3938,11 +3943,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3954,14 +3959,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38">
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3971,11 +3976,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3985,11 +3990,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4001,14 +4006,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38">
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -4018,11 +4023,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -4032,11 +4037,34 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I27" s="14">
+        <f>SUM(I9:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="27">
+        <f>SUM(J9:K26)</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="J12:K14"/>
@@ -4045,17 +4073,6 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4067,10 +4084,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:K26"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K26"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4081,19 +4098,22 @@
     <col min="4" max="8" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -4118,13 +4138,13 @@
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4136,14 +4156,14 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="38">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="11"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4153,11 +4173,15 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="11"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="1" t="e">
+        <f>I9/I27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -4167,11 +4191,11 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4183,14 +4207,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="38">
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4200,11 +4224,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4214,11 +4238,11 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4230,14 +4254,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38">
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="11"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -4247,11 +4271,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -4261,11 +4285,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4277,14 +4301,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="38">
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4294,11 +4318,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -4308,11 +4332,11 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4324,14 +4348,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="38">
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4341,11 +4365,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -4355,11 +4379,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4371,14 +4395,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="38">
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -4388,11 +4412,11 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -4402,11 +4426,28 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I27" s="14"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="J12:K14"/>
@@ -4415,17 +4456,6 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/daily-scrum-meeting-template.xlsx
+++ b/daily-scrum-meeting-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="8_{B6EB67BE-81C3-437A-9A70-76C0DCA98807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F570D63B-1F48-4A82-889D-666EC0B39BBA}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{B6EB67BE-81C3-437A-9A70-76C0DCA98807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A544C4C-7A6E-4EA7-904F-D150229F5429}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="844" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="46">
   <si>
     <t>PROJECT MANAGER</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lectures and Meetings.  PM Forum. Emails to clients and </t>
+  </si>
+  <si>
+    <t>Further correspondence with client over server access using SSH.  Not available so requested university development server for project.</t>
   </si>
 </sst>
 </file>
@@ -419,23 +422,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -455,11 +446,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,18 +859,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -901,7 +904,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -912,15 +915,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
+      <c r="I9" s="23"/>
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K9" s="22"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -929,16 +932,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -947,12 +950,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -963,15 +966,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -980,12 +983,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -994,12 +997,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1010,15 +1013,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1027,12 +1030,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1041,12 +1044,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1057,15 +1060,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1074,12 +1077,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1088,12 +1091,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1104,15 +1107,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1121,12 +1124,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1135,12 +1138,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1151,15 +1154,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1168,12 +1171,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1182,22 +1185,17 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -1213,6 +1211,11 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1239,18 +1242,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1284,7 +1287,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1305,17 +1308,17 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <f>I9</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1334,16 +1337,16 @@
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1362,12 +1365,12 @@
       <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1378,15 +1381,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f t="shared" ref="J12" si="0">I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1395,12 +1398,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1409,12 +1412,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1425,15 +1428,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f t="shared" ref="J15" si="1">I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1442,12 +1445,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1456,12 +1459,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1472,15 +1475,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f t="shared" ref="J18" si="2">I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1489,12 +1492,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1503,12 +1506,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1519,15 +1522,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f t="shared" ref="J21" si="3">I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1536,12 +1539,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1550,12 +1553,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1566,15 +1569,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f t="shared" ref="J24" si="4">I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1583,12 +1586,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1597,23 +1600,36 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="15">
         <f>SUM(J9:K26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="J9:K11"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="J21:K23"/>
@@ -1621,19 +1637,6 @@
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="I24:I26"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1661,18 +1664,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1706,7 +1709,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1727,17 +1730,17 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="23">
         <v>0.22222222222222221</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1756,16 +1759,16 @@
       <c r="H10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1784,12 +1787,12 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1800,15 +1803,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1817,12 +1820,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1831,12 +1834,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1847,15 +1850,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1864,12 +1867,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1878,12 +1881,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1894,15 +1897,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1911,12 +1914,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1925,12 +1928,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1941,15 +1944,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1958,12 +1961,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1972,12 +1975,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1988,15 +1991,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2005,12 +2008,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2019,23 +2022,27 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="15">
         <f>SUM(J9:K26)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
@@ -2052,10 +2059,6 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2082,18 +2085,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2127,7 +2130,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2148,17 +2151,17 @@
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="23">
         <v>0.27083333333333331</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2177,16 +2180,16 @@
       <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2205,12 +2208,12 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2221,15 +2224,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2238,12 +2241,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2252,12 +2255,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2268,15 +2271,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2285,12 +2288,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2299,12 +2302,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2315,15 +2318,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2332,12 +2335,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2346,12 +2349,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2362,15 +2365,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2379,12 +2382,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2393,12 +2396,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2409,15 +2412,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2426,12 +2429,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2440,23 +2443,27 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="15">
         <f>SUM(J9:K26)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
@@ -2473,10 +2480,6 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2503,18 +2506,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2548,7 +2551,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2569,17 +2572,17 @@
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="23">
         <v>0.19444444444444445</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2598,16 +2601,16 @@
       <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2626,12 +2629,12 @@
       <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2642,15 +2645,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2659,12 +2662,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2673,12 +2676,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2689,15 +2692,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2706,12 +2709,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2720,12 +2723,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2736,15 +2739,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2753,12 +2756,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2767,12 +2770,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2783,15 +2786,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2800,12 +2803,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2814,12 +2817,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2830,15 +2833,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2847,12 +2850,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2861,23 +2864,27 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="15">
         <f>SUM(J9:K26)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
@@ -2894,10 +2901,6 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2911,7 +2914,7 @@
   </sheetPr>
   <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:I14"/>
     </sheetView>
   </sheetViews>
@@ -2924,18 +2927,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2969,7 +2972,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2982,37 +2985,39 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="I9" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3023,12 +3028,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3039,15 +3044,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3056,12 +3061,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3070,12 +3075,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3086,15 +3091,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3103,12 +3108,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3117,12 +3122,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3133,15 +3138,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3150,12 +3155,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3164,12 +3169,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3180,15 +3185,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3197,12 +3202,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3211,12 +3216,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3227,15 +3232,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3244,12 +3249,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3258,23 +3263,36 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J27" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="J27" s="15">
         <f>SUM(J9:K26)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K27" s="27"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J9:K11"/>
@@ -3282,19 +3300,6 @@
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="J18:K20"/>
     <mergeCell ref="J21:K23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I24:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3321,18 +3326,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3366,7 +3371,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3377,15 +3382,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
+      <c r="I9" s="23"/>
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K9" s="22"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3394,16 +3399,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3412,12 +3417,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3428,15 +3433,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3445,12 +3450,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3459,12 +3464,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3475,15 +3480,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3492,12 +3497,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3506,12 +3511,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3522,15 +3527,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3539,12 +3544,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3553,12 +3558,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3569,15 +3574,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3586,12 +3591,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3600,12 +3605,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3616,15 +3621,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3633,12 +3638,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3647,28 +3652,23 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="15">
         <f>SUM(J9:K26)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K27" s="27"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -3684,6 +3684,11 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3710,18 +3715,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3755,7 +3760,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3766,15 +3771,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
+      <c r="I9" s="23"/>
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K9" s="22"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3783,16 +3788,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3801,12 +3806,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3817,15 +3822,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3834,12 +3839,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3848,12 +3853,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3864,15 +3869,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3881,12 +3886,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3895,12 +3900,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3911,15 +3916,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3928,12 +3933,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3942,12 +3947,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3958,15 +3963,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3975,12 +3980,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3989,12 +3994,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4005,15 +4010,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -4022,12 +4027,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -4036,28 +4041,23 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="15">
         <f>SUM(J9:K26)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K27" s="27"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -4073,6 +4073,11 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4099,18 +4104,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4144,7 +4149,7 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4155,15 +4160,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
+      <c r="I9" s="23"/>
+      <c r="J9" s="17">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="K9" s="22"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4172,16 +4177,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -4190,12 +4195,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4206,15 +4211,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="23"/>
+      <c r="J12" s="17">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4223,12 +4228,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4237,12 +4242,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4253,15 +4258,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="23"/>
+      <c r="J15" s="17">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -4270,12 +4275,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -4284,12 +4289,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4300,15 +4305,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="23"/>
+      <c r="J18" s="17">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4317,12 +4322,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -4331,12 +4336,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4347,15 +4352,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="23"/>
+      <c r="J21" s="17">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4364,12 +4369,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -4378,12 +4383,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4394,15 +4399,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="23"/>
+      <c r="J24" s="17">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -4411,12 +4416,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -4425,22 +4430,17 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="I27" s="14"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -4456,6 +4456,11 @@
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/daily-scrum-meeting-template.xlsx
+++ b/daily-scrum-meeting-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="8_{B6EB67BE-81C3-437A-9A70-76C0DCA98807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A544C4C-7A6E-4EA7-904F-D150229F5429}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D461DE-1634-44B5-B0AC-45E64E97A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="844" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="844" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="48">
   <si>
     <t>PROJECT MANAGER</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Further correspondence with client over server access using SSH.  Not available so requested university development server for project.</t>
+  </si>
+  <si>
+    <t>Set up structured file package for code development</t>
+  </si>
+  <si>
+    <t>Set up virtual enviroment and a blank home page for webapp. Commited to github</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +232,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -422,11 +435,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,23 +471,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,10 +495,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,13 +800,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.73046875" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -802,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -810,7 +822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -818,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -826,7 +838,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -850,30 +862,30 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -903,8 +915,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -915,15 +927,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="17">
+      <c r="I9" s="18"/>
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -932,16 +944,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -950,12 +962,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -966,15 +978,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -983,12 +995,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -997,12 +1009,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1013,15 +1025,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1030,12 +1042,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1044,12 +1056,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1060,15 +1072,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1077,12 +1089,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1091,12 +1103,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1107,15 +1119,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1124,12 +1136,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1138,12 +1150,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1154,15 +1166,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1171,12 +1183,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1185,17 +1197,21 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -1212,10 +1228,6 @@
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1233,30 +1245,30 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1286,8 +1298,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1308,17 +1320,17 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="21">
         <f>I9</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1337,16 +1349,16 @@
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1365,12 +1377,12 @@
       <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1381,15 +1393,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f t="shared" ref="J12" si="0">I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1398,12 +1410,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1412,12 +1424,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1428,15 +1440,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f t="shared" ref="J15" si="1">I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1445,12 +1457,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1459,12 +1471,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1475,15 +1487,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f t="shared" ref="J18" si="2">I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1492,12 +1504,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1506,12 +1518,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1522,15 +1534,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f t="shared" ref="J21" si="3">I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1539,12 +1551,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1553,12 +1565,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1569,15 +1581,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f t="shared" ref="J24" si="4">I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1586,12 +1598,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1600,29 +1612,30 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
@@ -1630,13 +1643,12 @@
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="J12:K14"/>
     <mergeCell ref="J9:K11"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,30 +1667,30 @@
       <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1708,8 +1720,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1730,17 +1742,17 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <v>0.22222222222222221</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1759,16 +1771,16 @@
       <c r="H10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1787,12 +1799,12 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1803,15 +1815,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1820,12 +1832,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1834,12 +1846,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1850,15 +1862,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1867,12 +1879,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1881,12 +1893,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1897,15 +1909,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1914,12 +1926,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1928,12 +1940,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1944,15 +1956,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1961,12 +1973,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1975,12 +1987,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1991,15 +2003,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2008,12 +2020,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2022,28 +2034,25 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
@@ -2057,8 +2066,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2076,30 +2088,30 @@
       <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2129,8 +2141,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2151,17 +2163,17 @@
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <v>0.27083333333333331</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2180,16 +2192,16 @@
       <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2208,12 +2220,12 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2224,15 +2236,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2241,12 +2253,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2255,12 +2267,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2271,15 +2283,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2288,12 +2300,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2302,12 +2314,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2318,15 +2330,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2335,12 +2347,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2349,12 +2361,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2365,15 +2377,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2382,12 +2394,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2396,12 +2408,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2412,15 +2424,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2429,12 +2441,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2443,28 +2455,25 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
@@ -2478,8 +2487,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2493,34 +2505,34 @@
   </sheetPr>
   <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2550,8 +2562,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2572,17 +2584,17 @@
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <v>0.19444444444444445</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2601,16 +2613,16 @@
       <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2629,12 +2641,12 @@
       <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2645,15 +2657,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2662,12 +2674,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2676,12 +2688,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2692,15 +2704,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2709,12 +2721,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2723,12 +2735,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2739,15 +2751,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2756,12 +2768,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2770,12 +2782,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2786,15 +2798,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2803,12 +2815,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2817,12 +2829,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2833,15 +2845,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2850,12 +2862,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2864,28 +2876,25 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
@@ -2899,8 +2908,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2914,34 +2926,34 @@
   </sheetPr>
   <dimension ref="B6:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2971,8 +2983,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2985,17 +2997,17 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <v>0.125</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3008,16 +3020,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1">
         <f>I9/I27*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+        <v>60.000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3028,12 +3040,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3044,15 +3056,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3061,12 +3073,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3075,12 +3087,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3091,15 +3103,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3108,12 +3120,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3122,12 +3134,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3138,15 +3150,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3155,12 +3167,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3169,12 +3181,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3185,29 +3197,35 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3216,12 +3234,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3232,15 +3250,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3249,12 +3267,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3263,23 +3281,36 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J27" s="15">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K27" s="15"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -3287,19 +3318,6 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J21:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3317,30 +3335,30 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3370,8 +3388,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3382,15 +3400,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="17">
+      <c r="I9" s="18"/>
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3399,16 +3417,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3417,12 +3435,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3433,15 +3451,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3450,12 +3468,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3464,12 +3482,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3480,15 +3498,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3497,12 +3515,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3511,12 +3529,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3527,15 +3545,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3544,12 +3562,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3558,12 +3576,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3574,15 +3592,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3591,12 +3609,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3605,12 +3623,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3621,15 +3639,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3638,12 +3656,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3652,23 +3670,27 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K27" s="15"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -3685,10 +3707,6 @@
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3706,30 +3724,30 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3759,8 +3777,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3771,15 +3789,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="17">
+      <c r="I9" s="18"/>
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3788,16 +3806,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3806,12 +3824,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3822,15 +3840,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3839,12 +3857,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3853,12 +3871,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3869,15 +3887,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3886,12 +3904,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3900,12 +3918,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3916,15 +3934,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3933,12 +3951,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3947,12 +3965,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3963,15 +3981,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3980,12 +3998,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3994,12 +4012,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4010,15 +4028,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -4027,12 +4045,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -4041,23 +4059,27 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="27">
         <f>SUM(J9:K26)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K27" s="15"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -4074,10 +4096,6 @@
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4095,30 +4113,30 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="8" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -4148,8 +4166,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4160,15 +4178,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="17">
+      <c r="I9" s="18"/>
+      <c r="J9" s="21">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4177,16 +4195,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="1" t="e">
         <f>I9/I27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -4195,12 +4213,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4211,15 +4229,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="17">
+      <c r="I12" s="18"/>
+      <c r="J12" s="21">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4228,12 +4246,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4242,12 +4260,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4258,15 +4276,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="17">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="28"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -4275,12 +4293,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -4289,12 +4307,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4305,15 +4323,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="17">
+      <c r="I18" s="18"/>
+      <c r="J18" s="21">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4322,12 +4340,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="28"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -4336,12 +4354,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4352,15 +4370,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="17">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="28"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4369,12 +4387,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="28"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -4383,12 +4401,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="28" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4399,15 +4417,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="17">
+      <c r="I24" s="18"/>
+      <c r="J24" s="21">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -4416,12 +4434,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -4430,17 +4448,21 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I26" s="20"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -4457,10 +4479,6 @@
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/daily-scrum-meeting-template.xlsx
+++ b/daily-scrum-meeting-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D461DE-1634-44B5-B0AC-45E64E97A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{E5D461DE-1634-44B5-B0AC-45E64E97A306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED799A0-9351-40FA-BECD-EA4AB13AFF55}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="844" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="844" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="49">
   <si>
     <t>PROJECT MANAGER</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Set up virtual enviroment and a blank home page for webapp. Commited to github</t>
+  </si>
+  <si>
+    <t>Emails to Brian and University tech team</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -434,24 +437,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,14 +461,44 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,13 +820,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" customWidth="1"/>
+    <col min="4" max="4" width="37.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -814,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -822,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -830,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -838,7 +858,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -856,36 +876,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:L27"/>
+  <dimension ref="B6:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -915,8 +935,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -927,15 +947,19 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
+      <c r="I9" s="22"/>
+      <c r="J9" s="16">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28" t="e">
+        <f>I9/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -944,16 +968,13 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1" t="e">
-        <f>I9/I27*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -962,12 +983,13 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -978,15 +1000,19 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="22"/>
+      <c r="J12" s="16">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28" t="e">
+        <f t="shared" ref="L12:L26" si="0">I12/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -995,12 +1021,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1009,12 +1036,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1025,15 +1053,19 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="22"/>
+      <c r="J15" s="16">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28" t="e">
+        <f t="shared" ref="L15:L26" si="1">I15/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1042,12 +1074,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1056,12 +1089,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1072,15 +1106,19 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="22"/>
+      <c r="J18" s="16">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28" t="e">
+        <f t="shared" ref="L18:L26" si="2">I18/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1089,12 +1127,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1103,12 +1142,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1119,15 +1159,18 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
-        <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28" t="e">
+        <f t="shared" ref="L21:L26" si="3">I21/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1136,12 +1179,13 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1150,12 +1194,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1166,15 +1211,19 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="22"/>
+      <c r="J24" s="16">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28" t="e">
+        <f t="shared" ref="L24:L27" si="4">I24/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1183,12 +1232,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1197,17 +1247,45 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="30">
+        <f>SUM(I9:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f>SUM(J9:K26)</f>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L29" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
@@ -1224,10 +1302,6 @@
     <mergeCell ref="J12:K14"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1239,36 +1313,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:L27"/>
+  <dimension ref="B6:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1298,8 +1372,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1320,17 +1394,21 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="22">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="16">
         <f>I9</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28">
+        <f>I9/$I$27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1349,16 +1427,13 @@
       <c r="H10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1">
-        <f>I9/I27*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1377,12 +1452,13 @@
       <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1393,15 +1469,21 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f t="shared" ref="J12" si="0">I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28">
+        <f t="shared" ref="L12:L26" si="1">I12/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1410,12 +1492,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1424,12 +1507,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1440,15 +1524,21 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
-        <f t="shared" ref="J15" si="1">I15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" ref="J15" si="2">I15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28">
+        <f t="shared" ref="L15:L26" si="3">I15/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1457,12 +1547,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1471,12 +1562,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1487,15 +1579,21 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
-        <f t="shared" ref="J18" si="2">I18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" ref="J18" si="4">I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28">
+        <f t="shared" ref="L18:L26" si="5">I18/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1504,12 +1602,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1518,12 +1617,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1534,15 +1634,21 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
-        <f t="shared" ref="J21" si="3">I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" ref="J21" si="6">I21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28">
+        <f t="shared" ref="L21:L26" si="7">I21/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1551,12 +1657,13 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1565,12 +1672,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1581,15 +1689,21 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
-        <f t="shared" ref="J24" si="4">I24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" ref="J24" si="8">I24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28">
+        <f t="shared" ref="L24:L27" si="9">I24/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1598,12 +1712,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1612,30 +1727,55 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
         <f>SUM(I9:I26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="32">
         <f>SUM(J9:K26)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I24:I26"/>
+  <mergeCells count="28">
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I12:I14"/>
@@ -1643,12 +1783,12 @@
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="J12:K14"/>
     <mergeCell ref="J9:K11"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I24:I26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1661,36 +1801,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:L27"/>
+  <dimension ref="B6:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1720,8 +1860,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1742,17 +1882,21 @@
       <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="22">
         <v>0.22222222222222221</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="16">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28">
+        <f>I9/$I$27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1771,16 +1915,13 @@
       <c r="H10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1">
-        <f>I9/I27*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1799,12 +1940,13 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1815,15 +1957,21 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28">
+        <f t="shared" ref="L12:L26" si="0">I12/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1832,12 +1980,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1846,12 +1995,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1862,15 +2012,21 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28">
+        <f t="shared" ref="L15:L26" si="1">I15/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1879,12 +2035,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1893,12 +2050,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1909,15 +2067,21 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28">
+        <f t="shared" ref="L18:L26" si="2">I18/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1926,12 +2090,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1940,12 +2105,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1956,15 +2122,21 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28">
+        <f t="shared" ref="L21:L26" si="3">I21/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1973,12 +2145,13 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1987,12 +2160,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2003,15 +2177,21 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28">
+        <f t="shared" ref="L24:L27" si="4">I24/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2020,12 +2200,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2034,26 +2215,55 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
         <f>SUM(I9:I26)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="32">
         <f>SUM(J9:K26)</f>
         <v>0.24305555555555555</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="28">
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="J12:K14"/>
@@ -2067,10 +2277,6 @@
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2082,36 +2288,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:L27"/>
+  <dimension ref="B6:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2141,8 +2347,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2163,17 +2369,21 @@
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="22">
         <v>0.27083333333333331</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="16">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28">
+        <f>I9/$I$27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2192,16 +2402,13 @@
       <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1">
-        <f>I9/I27*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2220,12 +2427,13 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2236,15 +2444,21 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28">
+        <f t="shared" ref="L12:L26" si="0">I12/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2253,12 +2467,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2267,12 +2482,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2283,15 +2499,21 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28">
+        <f t="shared" ref="L15:L26" si="1">I15/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2300,12 +2522,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2314,12 +2537,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2330,15 +2554,21 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28">
+        <f t="shared" ref="L18:L26" si="2">I18/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2347,12 +2577,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2361,12 +2592,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2377,15 +2609,21 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28">
+        <f t="shared" ref="L21:L26" si="3">I21/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2394,12 +2632,13 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2408,12 +2647,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2424,15 +2664,21 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28">
+        <f t="shared" ref="L24:L26" si="4">I24/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2441,12 +2687,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2455,26 +2702,55 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
         <f>SUM(I9:I26)</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="32">
         <f>SUM(J9:K26)</f>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31">
+        <f>I27/$I$27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="28">
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="J12:K14"/>
@@ -2488,10 +2764,6 @@
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2503,36 +2775,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:L27"/>
+  <dimension ref="B6:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2562,8 +2834,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2584,17 +2856,21 @@
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="22">
         <v>0.19444444444444445</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="16">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28">
+        <f>I9/$I$27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2613,16 +2889,13 @@
       <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1">
-        <f>I9/I27*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2641,12 +2914,13 @@
       <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2657,15 +2931,21 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28">
+        <f t="shared" ref="L12:L26" si="0">I12/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2674,12 +2954,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2688,12 +2969,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2704,15 +2986,21 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28">
+        <f t="shared" ref="L15:L26" si="1">I15/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2721,12 +3009,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2735,12 +3024,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2751,15 +3041,21 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28">
+        <f t="shared" ref="L18:L26" si="2">I18/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2768,12 +3064,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2782,12 +3079,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2798,15 +3096,21 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28">
+        <f t="shared" ref="L21:L26" si="3">I21/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2815,12 +3119,13 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2829,12 +3134,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2845,15 +3151,21 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28">
+        <f t="shared" ref="L24:L26" si="4">I24/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2862,12 +3174,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2876,26 +3189,55 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
         <f>SUM(I9:I26)</f>
         <v>0.19444444444444445</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="32">
         <f>SUM(J9:K26)</f>
         <v>0.70833333333333326</v>
       </c>
-      <c r="K27" s="27"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31">
+        <f>I27/$I$27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="28">
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="J12:K14"/>
@@ -2909,10 +3251,6 @@
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2924,36 +3262,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:L27"/>
+  <dimension ref="B6:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" topLeftCell="B14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2983,8 +3321,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2997,17 +3335,21 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18">
-        <v>0.125</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="I9" s="22">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="J9" s="16">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28">
+        <f>$I$9/I27*100</f>
+        <v>64.705882352941174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3019,17 +3361,16 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1">
-        <f>I9/I27*100</f>
-        <v>60.000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="H10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3040,12 +3381,13 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3056,15 +3398,21 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28">
+        <f t="shared" ref="L12:L20" si="0">I12/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3073,12 +3421,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3087,12 +3436,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3103,15 +3453,21 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28">
+        <f t="shared" ref="L15:L20" si="1">I15/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3120,12 +3476,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3134,12 +3491,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3150,15 +3508,21 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28">
+        <f t="shared" ref="L18:L20" si="2">I18/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3167,12 +3531,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3181,12 +3546,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3197,21 +3563,25 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18">
+      <c r="I21" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="16">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28">
+        <f>I21/$I$27*100</f>
+        <v>35.294117647058819</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="5"/>
@@ -3220,12 +3590,13 @@
       <c r="H22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3234,12 +3605,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3250,15 +3622,21 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28">
+        <f>I24/$I$27*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3267,12 +3645,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3281,36 +3660,49 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
         <f>SUM(I9:I26)</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="J27" s="27">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="J27" s="32">
         <f>SUM(J9:K26)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="K27" s="27"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="28">
+        <f>I27/$I$27*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I9:I11"/>
+  <mergeCells count="28">
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B9:B11"/>
@@ -3318,6 +3710,18 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="J21:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3329,36 +3733,36 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B6:L27"/>
+  <dimension ref="B6:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3388,8 +3792,8 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3400,15 +3804,21 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28" t="e">
+        <f>I9/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3417,16 +3827,13 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1" t="e">
-        <f>I9/I27*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3435,12 +3842,13 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3451,15 +3859,21 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28" t="e">
+        <f t="shared" ref="L12:L26" si="0">I12/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3468,12 +3882,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3482,12 +3897,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3498,15 +3914,21 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28" t="e">
+        <f t="shared" ref="L15:L26" si="1">I15/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3515,12 +3937,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3529,12 +3952,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3545,15 +3969,21 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28" t="e">
+        <f t="shared" ref="L18:L26" si="2">I18/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
@@ -3562,12 +3992,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3576,12 +4007,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3592,15 +4024,21 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28" t="e">
+        <f t="shared" ref="L21:L26" si="3">I21/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3609,12 +4047,13 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3623,12 +4062,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3639,15 +4079,21 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28" t="e">
+        <f t="shared" ref="L24:L27" si="4">I24/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3656,12 +4102,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3670,23 +4117,962 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="32">
         <f>SUM(J9:K26)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="K27" s="27"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="28">
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="J18:K20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L9" evalError="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928CFBAF-36BC-400D-875D-20ECFBF827A2}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B6:L29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28" t="e">
+        <f>I9/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28" t="e">
+        <f t="shared" ref="L12:L26" si="0">I12/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28" t="e">
+        <f t="shared" ref="L15:L26" si="1">I15/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28" t="e">
+        <f t="shared" ref="L18:L26" si="2">I18/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28" t="e">
+        <f t="shared" ref="L21:L26" si="3">I21/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28" t="e">
+        <f t="shared" ref="L24:L27" si="4">I24/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
+        <f>SUM(I9:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <f>SUM(J9:K26)</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="J18:K20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F92B77D-2844-4A89-AF4C-B5378AEF4681}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B6:L29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
+    <col min="4" max="8" width="26.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="28" t="e">
+        <f>I9/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="27"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="27"/>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="28" t="e">
+        <f t="shared" ref="L12:L26" si="0">I12/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="27"/>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="27"/>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="28" t="e">
+        <f t="shared" ref="L15:L26" si="1">I15/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="27"/>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="27"/>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28" t="e">
+        <f t="shared" ref="L18:L26" si="2">I18/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27"/>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="28" t="e">
+        <f t="shared" ref="L21:L26" si="3">I21/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27"/>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="27"/>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="28" t="e">
+        <f t="shared" ref="L24:L27" si="4">I24/$I$27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="I27" s="29">
+        <f>SUM(I9:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f>SUM(J9:K26)</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L29" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I21:I23"/>
@@ -3703,782 +5089,6 @@
     <mergeCell ref="J12:K14"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928CFBAF-36BC-400D-875D-20ECFBF827A2}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="B6:L27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
-        <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1" t="e">
-        <f>I9/I27*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
-        <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
-        <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
-        <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
-        <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
-        <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14">
-        <f>SUM(I9:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="27">
-        <f>SUM(J9:K26)</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="K27" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F92B77D-2844-4A89-AF4C-B5378AEF4681}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="B6:L27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="8" width="26.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21">
-        <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="1" t="e">
-        <f>I9/I27*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21">
-        <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21">
-        <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21">
-        <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21">
-        <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="2:11" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="21">
-        <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="2:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I27" s="14"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I12:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/daily-scrum-meeting-template.xlsx
+++ b/daily-scrum-meeting-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_8331C519CE53FBEA1906BD5EC10CF0C857441323" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CCDDFE4-4E29-4D50-8AFB-7A32F1F48891}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C07ADE-3ED4-4834-8C47-893954CA8D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="51">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Set up structured file package for code development</t>
   </si>
   <si>
-    <t>Set up virtual enviroment and a blank home page for webapp. Commited to github</t>
-  </si>
-  <si>
     <t>Team meeting, PIR report, and Communication with the team following the meeting.</t>
   </si>
   <si>
@@ -192,6 +189,12 @@
   </si>
   <si>
     <t>nil</t>
+  </si>
+  <si>
+    <t>Set up virtual enviroment and a blank home page for webapp. Commited to github. Added comments.</t>
+  </si>
+  <si>
+    <t>Wrote my part of the PIR report</t>
   </si>
 </sst>
 </file>
@@ -572,6 +575,60 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,112 +638,58 @@
     <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,57 +996,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.86328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.3984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="24">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="25" t="s">
+    </row>
+    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="25" t="s">
+    </row>
+    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="26">
         <v>44956</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="24">
         <v>1</v>
@@ -1065,57 +1068,57 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J1" s="2"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J7" s="2"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1149,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -1158,18 +1161,18 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="39">
+      <c r="I9" s="33"/>
+      <c r="J9" s="36">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="35" t="e">
+      <c r="K9" s="37"/>
+      <c r="L9" s="49" t="e">
         <f>I9/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
@@ -1179,12 +1182,12 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
@@ -1194,12 +1197,12 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -1211,18 +1214,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="35" t="e">
+      <c r="K12" s="37"/>
+      <c r="L12" s="49" t="e">
         <f>I12/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -1232,12 +1235,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -1247,12 +1250,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -1264,18 +1267,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="35" t="e">
+      <c r="K15" s="37"/>
+      <c r="L15" s="49" t="e">
         <f>I15/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -1285,12 +1288,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -1300,12 +1303,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -1317,18 +1320,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="35" t="e">
+      <c r="K18" s="37"/>
+      <c r="L18" s="49" t="e">
         <f>I18/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -1338,12 +1341,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -1353,12 +1356,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -1370,15 +1373,15 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="35" t="e">
+      <c r="I21" s="33"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="49" t="e">
         <f>I21/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -1388,12 +1391,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -1403,12 +1406,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -1420,18 +1423,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="35" t="e">
+      <c r="K24" s="37"/>
+      <c r="L24" s="49" t="e">
         <f>I24/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -1441,12 +1444,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -1456,39 +1459,46 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="62">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="30">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
         <v>20.6</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="60"/>
-    </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K27" s="43"/>
+      <c r="L27" s="63"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J28" s="2"/>
-      <c r="L28" s="61"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L28" s="64"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J29" s="2"/>
-      <c r="L29" s="61"/>
+      <c r="L29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -1497,19 +1507,12 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1526,69 +1529,69 @@
       <selection activeCell="I9" sqref="I9:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1622,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>19</v>
@@ -1641,20 +1644,20 @@
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <v>0.5</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="36">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="34">
+      <c r="K9" s="37"/>
+      <c r="L9" s="42">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
@@ -1674,37 +1677,37 @@
       <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -1716,18 +1719,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="34">
+      <c r="K12" s="37"/>
+      <c r="L12" s="42">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -1737,12 +1740,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -1752,12 +1755,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -1769,18 +1772,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="34">
+      <c r="K15" s="37"/>
+      <c r="L15" s="42">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -1790,12 +1793,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -1805,12 +1808,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -1822,18 +1825,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="34">
+      <c r="K18" s="37"/>
+      <c r="L18" s="42">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -1843,12 +1846,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -1858,12 +1861,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -1875,18 +1878,18 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="33"/>
+      <c r="J21" s="36">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="34">
+      <c r="K21" s="37"/>
+      <c r="L21" s="42">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -1896,12 +1899,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -1911,12 +1914,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -1928,18 +1931,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="34">
+      <c r="K24" s="37"/>
+      <c r="L24" s="42">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -1949,12 +1952,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="42"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -1964,47 +1967,53 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
         <v>0.5</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
         <v>0.5</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="47">
+      <c r="K27" s="43"/>
+      <c r="L27" s="45">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -2013,19 +2022,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2042,69 +2045,69 @@
       <selection activeCell="J9" sqref="J9:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2135,7 +2138,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -2157,57 +2160,57 @@
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <v>5.45</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="36">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="34">
+      <c r="K9" s="37"/>
+      <c r="L9" s="42">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>19</v>
@@ -2215,12 +2218,12 @@
       <c r="H11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -2232,18 +2235,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="34">
+      <c r="K12" s="37"/>
+      <c r="L12" s="42">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -2253,12 +2256,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -2268,12 +2271,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -2285,18 +2288,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="34">
+      <c r="K15" s="37"/>
+      <c r="L15" s="42">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -2306,12 +2309,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -2321,12 +2324,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -2338,18 +2341,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="34">
+      <c r="K18" s="37"/>
+      <c r="L18" s="42">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -2359,12 +2362,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -2374,12 +2377,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -2391,18 +2394,18 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="33"/>
+      <c r="J21" s="36">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="34">
+      <c r="K21" s="37"/>
+      <c r="L21" s="42">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -2412,12 +2415,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -2427,12 +2430,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -2444,18 +2447,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="34">
+      <c r="K24" s="37"/>
+      <c r="L24" s="42">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -2465,12 +2468,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="42"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -2480,47 +2483,53 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
         <v>5.45</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
         <v>5.95</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="47">
+      <c r="K27" s="43"/>
+      <c r="L27" s="45">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -2529,19 +2538,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2558,69 +2561,69 @@
       <selection activeCell="J9" sqref="J9:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2651,7 +2654,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="2:12" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -2659,59 +2662,59 @@
         <v>11</v>
       </c>
       <c r="D9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <v>5.45</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="36">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="34">
+      <c r="K9" s="37"/>
+      <c r="L9" s="42">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
@@ -2731,12 +2734,12 @@
       <c r="H11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -2748,18 +2751,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="34">
+      <c r="K12" s="37"/>
+      <c r="L12" s="42">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -2769,12 +2772,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -2784,12 +2787,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -2801,18 +2804,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="34">
+      <c r="K15" s="37"/>
+      <c r="L15" s="42">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -2822,12 +2825,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -2837,12 +2840,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -2854,18 +2857,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="34">
+      <c r="K18" s="37"/>
+      <c r="L18" s="42">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -2875,12 +2878,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -2890,12 +2893,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -2907,18 +2910,18 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="33"/>
+      <c r="J21" s="36">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="34">
+      <c r="K21" s="37"/>
+      <c r="L21" s="42">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -2928,12 +2931,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -2943,12 +2946,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -2960,18 +2963,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="34">
+      <c r="K24" s="37"/>
+      <c r="L24" s="42">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -2981,12 +2984,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="42"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -2996,47 +2999,53 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
         <v>5.45</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
         <v>11.4</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="47">
+      <c r="K27" s="43"/>
+      <c r="L27" s="45">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -3045,19 +3054,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3070,73 +3073,73 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -3167,7 +3170,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -3178,81 +3181,81 @@
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <v>4.45</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="36">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="34">
+      <c r="K9" s="37"/>
+      <c r="L9" s="42">
         <f>I9/$I$27*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>59.731543624161077</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -3264,18 +3267,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="34">
+      <c r="K12" s="37"/>
+      <c r="L12" s="42">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -3285,12 +3288,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -3300,12 +3303,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -3317,18 +3320,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="34">
+      <c r="K15" s="37"/>
+      <c r="L15" s="42">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -3338,12 +3341,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -3353,12 +3356,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -3370,18 +3373,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="34">
+      <c r="K18" s="37"/>
+      <c r="L18" s="42">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -3391,12 +3394,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -3406,12 +3409,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -3423,33 +3426,37 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="33">
+        <v>3</v>
+      </c>
+      <c r="J21" s="36">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="34">
+        <v>3</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="42">
         <f>I21/$I$27*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+        <v>40.268456375838923</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -3459,12 +3466,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -3476,18 +3483,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="34">
+      <c r="K24" s="37"/>
+      <c r="L24" s="42">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -3497,12 +3504,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="42"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -3512,47 +3519,53 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
-        <v>4.45</v>
-      </c>
-      <c r="J27" s="45">
+        <v>7.45</v>
+      </c>
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
-        <v>15.850000000000001</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="47">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="45">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -3561,21 +3574,16 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3586,73 +3594,73 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -3683,7 +3691,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -3705,43 +3713,43 @@
       <c r="H9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="33">
         <v>4.75</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="36">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="35">
+      <c r="K9" s="37"/>
+      <c r="L9" s="49">
         <f>I9/$I$27</f>
-        <v>0.70370370370370372</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="90" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.65517241379310343</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58" t="s">
+      <c r="F10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
@@ -3761,12 +3769,12 @@
       <c r="H11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -3778,18 +3786,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="35">
-        <f t="shared" ref="L12:L26" si="0">I12/$I$27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K12" s="37"/>
+      <c r="L12" s="49">
+        <f t="shared" ref="L12" si="0">I12/$I$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -3799,12 +3807,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -3814,12 +3822,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -3831,18 +3839,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="35">
-        <f t="shared" ref="L15:L26" si="1">I15/$I$27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K15" s="37"/>
+      <c r="L15" s="49">
+        <f t="shared" ref="L15" si="1">I15/$I$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -3852,12 +3860,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -3867,12 +3875,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -3884,18 +3892,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="35">
-        <f t="shared" ref="L18:L26" si="2">I18/$I$27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K18" s="37"/>
+      <c r="L18" s="49">
+        <f t="shared" ref="L18" si="2">I18/$I$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -3905,12 +3913,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -3920,12 +3928,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -3937,20 +3945,20 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36">
-        <v>2</v>
-      </c>
-      <c r="J21" s="39">
+      <c r="I21" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="J21" s="36">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="35">
-        <f t="shared" ref="L21:L26" si="3">I21/$I$27</f>
-        <v>0.29629629629629628</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
+        <v>5.5</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="49">
+        <f t="shared" ref="L21" si="3">I21/$I$27</f>
+        <v>0.34482758620689657</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -3962,14 +3970,14 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -3979,12 +3987,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -3996,18 +4004,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="35">
-        <f t="shared" ref="L24:L26" si="4">I24/$I$27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K24" s="37"/>
+      <c r="L24" s="49">
+        <f t="shared" ref="L24" si="4">I24/$I$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -4017,12 +4025,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -4032,44 +4040,50 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
-        <v>6.75</v>
-      </c>
-      <c r="J27" s="45">
+        <v>7.25</v>
+      </c>
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="35"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="35"/>
+        <v>26.1</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="49"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -4078,19 +4092,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4107,68 +4115,68 @@
       <selection activeCell="L9" sqref="L9:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="14"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4207,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -4211,18 +4219,18 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="39">
+      <c r="I9" s="33"/>
+      <c r="J9" s="36">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="35" t="e">
+      <c r="K9" s="37"/>
+      <c r="L9" s="49" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
@@ -4232,12 +4240,12 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
@@ -4247,12 +4255,12 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -4264,18 +4272,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="35" t="e">
-        <f t="shared" ref="L12:L26" si="0">I12/$I$27</f>
+      <c r="K12" s="37"/>
+      <c r="L12" s="49" t="e">
+        <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -4285,12 +4293,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -4300,12 +4308,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -4317,18 +4325,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="35" t="e">
-        <f t="shared" ref="L15:L26" si="1">I15/$I$27</f>
+      <c r="K15" s="37"/>
+      <c r="L15" s="49" t="e">
+        <f t="shared" ref="L15" si="1">I15/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -4338,12 +4346,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -4353,12 +4361,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -4370,18 +4378,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="35" t="e">
-        <f t="shared" ref="L18:L26" si="2">I18/$I$27</f>
+      <c r="K18" s="37"/>
+      <c r="L18" s="49" t="e">
+        <f t="shared" ref="L18" si="2">I18/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -4391,12 +4399,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -4406,12 +4414,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -4423,18 +4431,18 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="33"/>
+      <c r="J21" s="36">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="35" t="e">
-        <f t="shared" ref="L21:L26" si="3">I21/$I$27</f>
+        <v>5.5</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="49" t="e">
+        <f t="shared" ref="L21" si="3">I21/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -4444,12 +4452,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -4459,12 +4467,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -4476,18 +4484,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="35" t="e">
-        <f t="shared" ref="L24:L26" si="4">I24/$I$27</f>
+      <c r="K24" s="37"/>
+      <c r="L24" s="49" t="e">
+        <f t="shared" ref="L24" si="4">I24/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -4497,12 +4505,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -4512,47 +4520,53 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46" t="e">
+        <v>26.1</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44" t="e">
         <f>I27/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -4561,19 +4575,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4590,68 +4598,68 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="14"/>
       <c r="J1" s="15"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -4682,7 +4690,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -4694,18 +4702,18 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="39">
+      <c r="I9" s="33"/>
+      <c r="J9" s="36">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="35" t="e">
+      <c r="K9" s="37"/>
+      <c r="L9" s="49" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
@@ -4715,12 +4723,12 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
@@ -4730,12 +4738,12 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="35"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -4747,18 +4755,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="39">
+      <c r="I12" s="33"/>
+      <c r="J12" s="36">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="35" t="e">
-        <f t="shared" ref="L12:L26" si="0">I12/$I$27</f>
+      <c r="K12" s="37"/>
+      <c r="L12" s="49" t="e">
+        <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -4768,12 +4776,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -4783,12 +4791,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="35"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -4800,18 +4808,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="39">
+      <c r="I15" s="33"/>
+      <c r="J15" s="36">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="35" t="e">
-        <f t="shared" ref="L15:L26" si="1">I15/$I$27</f>
+      <c r="K15" s="37"/>
+      <c r="L15" s="49" t="e">
+        <f t="shared" ref="L15" si="1">I15/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -4821,12 +4829,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="34"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -4836,12 +4844,12 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="35"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -4853,18 +4861,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="39">
+      <c r="I18" s="33"/>
+      <c r="J18" s="36">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="35" t="e">
-        <f t="shared" ref="L18:L26" si="2">I18/$I$27</f>
+      <c r="K18" s="37"/>
+      <c r="L18" s="49" t="e">
+        <f t="shared" ref="L18" si="2">I18/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -4874,12 +4882,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="34"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -4889,12 +4897,12 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -4906,18 +4914,18 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="39">
+      <c r="I21" s="33"/>
+      <c r="J21" s="36">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="35" t="e">
-        <f t="shared" ref="L21:L26" si="3">I21/$I$27</f>
+        <v>5.5</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="49" t="e">
+        <f t="shared" ref="L21" si="3">I21/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -4927,12 +4935,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="34"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -4942,12 +4950,12 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="35"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -4959,18 +4967,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="39">
+      <c r="I24" s="33"/>
+      <c r="J24" s="36">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="35" t="e">
-        <f t="shared" ref="L24:L26" si="4">I24/$I$27</f>
+      <c r="K24" s="37"/>
+      <c r="L24" s="49" t="e">
+        <f t="shared" ref="L24" si="4">I24/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -4980,12 +4988,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="34"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -4995,44 +5003,50 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="I26" s="35"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="59"/>
-    </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="59"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="59"/>
+        <v>26.1</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="51"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="51"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -5041,19 +5055,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5070,57 +5078,57 @@
       <selection activeCell="L27" sqref="L27:L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J1" s="2"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="2"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
+    <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J7" s="2"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -5151,7 +5159,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
@@ -5163,18 +5171,18 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49">
+      <c r="I9" s="52"/>
+      <c r="J9" s="55">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="63" t="e">
+      <c r="K9" s="56"/>
+      <c r="L9" s="61" t="e">
         <f>I9/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
@@ -5184,12 +5192,12 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="53"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="62"/>
+    </row>
+    <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
@@ -5200,11 +5208,11 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="64"/>
-    </row>
-    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="62"/>
+    </row>
+    <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
@@ -5216,18 +5224,18 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49">
+      <c r="I12" s="52"/>
+      <c r="J12" s="55">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="63" t="e">
+      <c r="K12" s="56"/>
+      <c r="L12" s="61" t="e">
         <f>I12/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -5237,12 +5245,12 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="64"/>
-    </row>
-    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="53"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
@@ -5253,11 +5261,11 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="64"/>
-    </row>
-    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
@@ -5269,18 +5277,18 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49">
+      <c r="I15" s="52"/>
+      <c r="J15" s="55">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="63" t="e">
+      <c r="K15" s="56"/>
+      <c r="L15" s="61" t="e">
         <f>I15/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
@@ -5290,12 +5298,12 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="64"/>
-    </row>
-    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="53"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
@@ -5306,11 +5314,11 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="64"/>
-    </row>
-    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J17" s="59"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="62"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
@@ -5322,18 +5330,18 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49">
+      <c r="I18" s="52"/>
+      <c r="J18" s="55">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="63" t="e">
+      <c r="K18" s="56"/>
+      <c r="L18" s="61" t="e">
         <f>I18/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -5343,12 +5351,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="64"/>
-    </row>
-    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="53"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="62"/>
+    </row>
+    <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -5359,11 +5367,11 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="64"/>
-    </row>
-    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="62"/>
+    </row>
+    <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>17</v>
       </c>
@@ -5375,18 +5383,18 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49">
+      <c r="I21" s="52"/>
+      <c r="J21" s="55">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="63" t="e">
+        <v>5.5</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="61" t="e">
         <f>I21/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -5396,12 +5404,12 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="64"/>
-    </row>
-    <row r="23" spans="2:12" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="53"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="62"/>
+    </row>
+    <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
@@ -5412,11 +5420,11 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="64"/>
-    </row>
-    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="62"/>
+    </row>
+    <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
@@ -5428,18 +5436,18 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49">
+      <c r="I24" s="52"/>
+      <c r="J24" s="55">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="63" t="e">
+      <c r="K24" s="56"/>
+      <c r="L24" s="61" t="e">
         <f>I24/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
@@ -5449,12 +5457,12 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="64"/>
-    </row>
-    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="53"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="62"/>
+    </row>
+    <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
@@ -5465,43 +5473,49 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="64"/>
-    </row>
-    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I27" s="45">
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="62"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="43">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="43">
         <f>SUM(J9:K26)</f>
-        <v>22.6</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="60"/>
-    </row>
-    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="61"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="61"/>
+        <v>26.1</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="63"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="64"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -5510,19 +5524,13 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:K23"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily-scrum-meeting-template.xlsx
+++ b/daily-scrum-meeting-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rorym\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclok\GitHub\MENS-SHED-SOC09109\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C07ADE-3ED4-4834-8C47-893954CA8D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B85591-B876-4F1D-A9D8-37A95A0E09F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="57">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>Wrote my part of the PIR report</t>
+  </si>
+  <si>
+    <t>Attended initial meeting with the client at Dunfermline.</t>
+  </si>
+  <si>
+    <t>Initial team meeting attended via Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Reviewed Initial PIR draft</t>
+  </si>
+  <si>
+    <t>Wrote security considerations of PIR report</t>
+  </si>
+  <si>
+    <t>Produced a suggestion for the PIR report with slightly different formatting</t>
+  </si>
+  <si>
+    <t>Working on an initial testing plan document</t>
   </si>
 </sst>
 </file>
@@ -584,6 +602,15 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -628,15 +655,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,18 +1118,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1168,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1161,19 +1179,19 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="36">
+      <c r="I9" s="36"/>
+      <c r="J9" s="39">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="49" t="e">
         <f>I9/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1182,13 +1200,13 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="49"/>
     </row>
     <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1197,13 +1215,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="49"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1214,19 +1232,19 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="I12" s="36"/>
+      <c r="J12" s="39">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="37"/>
+        <v>10.3</v>
+      </c>
+      <c r="K12" s="40"/>
       <c r="L12" s="49" t="e">
         <f>I12/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1235,13 +1253,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1250,13 +1268,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1267,19 +1285,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="49" t="e">
         <f>I15/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1288,13 +1306,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1303,13 +1321,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1320,19 +1338,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="49" t="e">
         <f>I18/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -1341,13 +1359,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1356,13 +1374,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1373,16 +1391,16 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="49" t="e">
         <f>I21/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -1391,13 +1409,13 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -1406,13 +1424,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -1423,19 +1441,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="49" t="e">
         <f>I24/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -1444,13 +1462,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -1459,9 +1477,9 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,11 +1487,11 @@
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
-        <v>20.6</v>
-      </c>
-      <c r="K27" s="43"/>
+        <v>30.900000000000002</v>
+      </c>
+      <c r="K27" s="46"/>
       <c r="L27" s="63"/>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,11 +1504,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -1499,20 +1526,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1571,18 +1589,18 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,7 +1641,7 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1644,21 +1662,21 @@
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <v>0.5</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="39">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="42">
+      <c r="K9" s="40"/>
+      <c r="L9" s="45">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1677,13 +1695,13 @@
       <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="42"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1702,13 +1720,13 @@
       <c r="H11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1719,19 +1737,19 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="I12" s="36"/>
+      <c r="J12" s="39">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="42">
+      <c r="K12" s="40"/>
+      <c r="L12" s="45">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1740,13 +1758,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="42"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1755,13 +1773,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1772,19 +1790,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="42">
+      <c r="K15" s="40"/>
+      <c r="L15" s="45">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1793,13 +1811,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1808,13 +1826,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1825,19 +1843,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="42">
+      <c r="K18" s="40"/>
+      <c r="L18" s="45">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -1846,13 +1864,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="42"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1861,13 +1879,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1878,19 +1896,19 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36">
+      <c r="I21" s="36"/>
+      <c r="J21" s="39">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="42">
+      <c r="K21" s="40"/>
+      <c r="L21" s="45">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -1899,13 +1917,13 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="42"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -1914,13 +1932,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -1931,19 +1949,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="42">
+      <c r="K24" s="40"/>
+      <c r="L24" s="45">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -1952,13 +1970,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="42"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -1967,45 +1985,55 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
         <v>0.5</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
         <v>0.5</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="45">
+      <c r="K27" s="46"/>
+      <c r="L27" s="48">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -2014,21 +2042,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2041,7 +2059,7 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J9" sqref="J9:K11"/>
     </sheetView>
   </sheetViews>
@@ -2087,18 +2105,18 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,7 +2157,7 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2160,21 +2178,21 @@
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <v>5.45</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="39">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="42">
+      <c r="K9" s="40"/>
+      <c r="L9" s="45">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2193,13 +2211,13 @@
       <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="42"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2218,13 +2236,13 @@
       <c r="H11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2235,19 +2253,19 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="I12" s="36"/>
+      <c r="J12" s="39">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="42">
+      <c r="K12" s="40"/>
+      <c r="L12" s="45">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2256,13 +2274,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="42"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2271,13 +2289,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2288,19 +2306,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="42">
+      <c r="K15" s="40"/>
+      <c r="L15" s="45">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -2309,13 +2327,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -2324,13 +2342,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2341,19 +2359,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="42">
+      <c r="K18" s="40"/>
+      <c r="L18" s="45">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -2362,13 +2380,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="42"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2377,13 +2395,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2394,19 +2412,19 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36">
+      <c r="I21" s="36"/>
+      <c r="J21" s="39">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="42">
+      <c r="K21" s="40"/>
+      <c r="L21" s="45">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -2415,13 +2433,13 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="42"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -2430,13 +2448,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2447,19 +2465,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="42">
+      <c r="K24" s="40"/>
+      <c r="L24" s="45">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -2468,13 +2486,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="42"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2483,45 +2501,55 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
         <v>5.45</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
         <v>5.95</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="45">
+      <c r="K27" s="46"/>
+      <c r="L27" s="48">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -2530,21 +2558,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2557,8 +2575,8 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,18 +2621,18 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2673,7 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2676,21 +2694,21 @@
       <c r="H9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <v>5.45</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="39">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="42">
+      <c r="K9" s="40"/>
+      <c r="L9" s="45">
         <f>I9/$I$27*100</f>
-        <v>100</v>
+        <v>52.153110047846894</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2709,13 +2727,13 @@
       <c r="H10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="42"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2734,51 +2752,61 @@
       <c r="H11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="H12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="36">
+        <v>5</v>
+      </c>
+      <c r="J12" s="39">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="42">
+        <v>5</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="45">
         <f>I12/$I$27*100</f>
-        <v>0</v>
+        <v>47.846889952153113</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="42"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2787,13 +2815,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2804,19 +2832,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="42">
+      <c r="K15" s="40"/>
+      <c r="L15" s="45">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -2825,13 +2853,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -2840,13 +2868,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2857,19 +2885,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="42">
+      <c r="K18" s="40"/>
+      <c r="L18" s="45">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -2878,13 +2906,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="42"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2893,13 +2921,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -2910,19 +2938,19 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36">
+      <c r="I21" s="36"/>
+      <c r="J21" s="39">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="42">
+      <c r="K21" s="40"/>
+      <c r="L21" s="45">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -2931,13 +2959,13 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="42"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -2946,13 +2974,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -2963,19 +2991,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="42">
+      <c r="K24" s="40"/>
+      <c r="L24" s="45">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -2984,13 +3012,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="42"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2999,45 +3027,55 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
-        <v>5.45</v>
-      </c>
-      <c r="J27" s="43">
+        <v>10.45</v>
+      </c>
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
-        <v>11.4</v>
-      </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="45">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="48">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -3046,21 +3084,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3073,8 +3101,8 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,18 +3147,18 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,7 +3199,7 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -3192,21 +3220,21 @@
       <c r="H9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <v>4.45</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="39">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="42">
+      <c r="K9" s="40"/>
+      <c r="L9" s="45">
         <f>I9/$I$27*100</f>
-        <v>59.731543624161077</v>
+        <v>41.395348837209305</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -3225,13 +3253,13 @@
       <c r="H10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="42"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -3250,51 +3278,63 @@
       <c r="H11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="I12" s="36">
+        <v>3.3</v>
+      </c>
+      <c r="J12" s="39">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="42">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="45">
         <f>I12/$I$27*100</f>
-        <v>0</v>
+        <v>30.697674418604649</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="42"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -3303,13 +3343,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -3320,19 +3360,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="42">
+      <c r="K15" s="40"/>
+      <c r="L15" s="45">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -3341,13 +3381,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -3356,13 +3396,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -3373,19 +3413,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="42">
+      <c r="K18" s="40"/>
+      <c r="L18" s="45">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -3394,13 +3434,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="42"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -3409,13 +3449,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -3426,21 +3466,21 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33">
+      <c r="I21" s="36">
         <v>3</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="39">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="42">
+      <c r="K21" s="40"/>
+      <c r="L21" s="45">
         <f>I21/$I$27*100</f>
-        <v>40.268456375838923</v>
+        <v>27.906976744186046</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -3451,13 +3491,13 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="42"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -3466,13 +3506,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -3483,19 +3523,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="42">
+      <c r="K24" s="40"/>
+      <c r="L24" s="45">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -3504,13 +3544,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="42"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -3519,45 +3559,55 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
-        <v>7.45</v>
-      </c>
-      <c r="J27" s="43">
+        <v>10.75</v>
+      </c>
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
-        <v>18.850000000000001</v>
-      </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="45">
+        <v>27.150000000000002</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="48">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -3566,21 +3616,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3594,8 +3634,8 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,18 +3680,18 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,7 +3732,7 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -3713,21 +3753,21 @@
       <c r="H9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <v>4.75</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="39">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="49">
         <f>I9/$I$27</f>
-        <v>0.65517241379310343</v>
+        <v>0.51351351351351349</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="28" t="s">
         <v>12</v>
       </c>
@@ -3744,13 +3784,13 @@
       <c r="H10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="49"/>
     </row>
     <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -3769,13 +3809,13 @@
       <c r="H11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="49"/>
     </row>
     <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -3786,19 +3826,21 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="I12" s="36">
+        <v>2</v>
+      </c>
+      <c r="J12" s="39">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="37"/>
+        <v>10.3</v>
+      </c>
+      <c r="K12" s="40"/>
       <c r="L12" s="49">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
-        <v>0</v>
+        <v>0.21621621621621623</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
@@ -3806,14 +3848,16 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="H13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -3822,13 +3866,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -3839,19 +3883,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="49">
         <f t="shared" ref="L15" si="1">I15/$I$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -3860,13 +3904,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -3875,13 +3919,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -3892,19 +3936,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="49">
         <f t="shared" ref="L18" si="2">I18/$I$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -3913,13 +3957,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -3928,13 +3972,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -3945,21 +3989,21 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33">
+      <c r="I21" s="36">
         <v>2.5</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="39">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="49">
         <f t="shared" ref="L21" si="3">I21/$I$27</f>
-        <v>0.34482758620689657</v>
+        <v>0.27027027027027029</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -3972,13 +4016,13 @@
       <c r="H22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -3987,13 +4031,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -4004,19 +4048,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="49">
         <f t="shared" ref="L24" si="4">I24/$I$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -4025,13 +4069,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -4040,42 +4084,52 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
-        <v>7.25</v>
-      </c>
-      <c r="J27" s="43">
+        <v>9.25</v>
+      </c>
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
-        <v>26.1</v>
-      </c>
-      <c r="K27" s="43"/>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="K27" s="46"/>
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="49"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -4084,21 +4138,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4111,7 +4155,7 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9:L26"/>
     </sheetView>
   </sheetViews>
@@ -4156,18 +4200,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4208,7 +4252,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4219,19 +4263,19 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="36">
+      <c r="I9" s="36"/>
+      <c r="J9" s="39">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="49" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -4240,13 +4284,13 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="49"/>
     </row>
     <row r="11" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -4255,13 +4299,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="49"/>
     </row>
     <row r="12" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -4272,19 +4316,19 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="I12" s="36"/>
+      <c r="J12" s="39">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="37"/>
+        <v>10.3</v>
+      </c>
+      <c r="K12" s="40"/>
       <c r="L12" s="49" t="e">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
@@ -4293,13 +4337,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -4308,13 +4352,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -4325,19 +4369,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="49" t="e">
         <f t="shared" ref="L15" si="1">I15/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -4346,13 +4390,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -4361,13 +4405,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -4378,19 +4422,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="49" t="e">
         <f t="shared" ref="L18" si="2">I18/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -4399,13 +4443,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -4414,13 +4458,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4431,19 +4475,19 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36">
+      <c r="I21" s="36"/>
+      <c r="J21" s="39">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="49" t="e">
         <f t="shared" ref="L21" si="3">I21/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -4452,13 +4496,13 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -4467,13 +4511,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -4484,19 +4528,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="49" t="e">
         <f t="shared" ref="L24" si="4">I24/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -4505,13 +4549,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -4520,45 +4564,55 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
-        <v>26.1</v>
-      </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="44" t="e">
+        <v>36.400000000000006</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47" t="e">
         <f>I27/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -4567,21 +4621,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4594,7 +4638,7 @@
   </sheetPr>
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -4639,18 +4683,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,7 +4735,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4702,19 +4746,19 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="36">
+      <c r="I9" s="36"/>
+      <c r="J9" s="39">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="49" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -4723,13 +4767,13 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="49"/>
     </row>
     <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -4738,13 +4782,13 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="49"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -4755,19 +4799,19 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36">
+      <c r="I12" s="36"/>
+      <c r="J12" s="39">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="37"/>
+        <v>10.3</v>
+      </c>
+      <c r="K12" s="40"/>
       <c r="L12" s="49" t="e">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
@@ -4776,13 +4820,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -4791,13 +4835,13 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -4808,19 +4852,19 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="36">
+      <c r="I15" s="36"/>
+      <c r="J15" s="39">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="49" t="e">
         <f t="shared" ref="L15" si="1">I15/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -4829,13 +4873,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -4844,13 +4888,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -4861,19 +4905,19 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="36">
+      <c r="I18" s="36"/>
+      <c r="J18" s="39">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="49" t="e">
         <f t="shared" ref="L18" si="2">I18/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -4882,13 +4926,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -4897,13 +4941,13 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="49"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4914,19 +4958,19 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36">
+      <c r="I21" s="36"/>
+      <c r="J21" s="39">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="37"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="49" t="e">
         <f t="shared" ref="L21" si="3">I21/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -4935,13 +4979,13 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
       <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -4950,13 +4994,13 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="49"/>
     </row>
     <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -4967,19 +5011,19 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36">
+      <c r="I24" s="36"/>
+      <c r="J24" s="39">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="49" t="e">
         <f t="shared" ref="L24" si="4">I24/$I$27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -4988,13 +5032,13 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
       <c r="L25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -5003,42 +5047,52 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
-        <v>26.1</v>
-      </c>
-      <c r="K27" s="43"/>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="K27" s="46"/>
       <c r="L27" s="51"/>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="51"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -5047,21 +5101,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5110,18 +5154,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,7 +5204,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -5183,7 +5227,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -5198,7 +5242,7 @@
       <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
@@ -5213,7 +5257,7 @@
       <c r="L11" s="62"/>
     </row>
     <row r="12" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -5227,7 +5271,7 @@
       <c r="I12" s="52"/>
       <c r="J12" s="55">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="K12" s="56"/>
       <c r="L12" s="61" t="e">
@@ -5236,7 +5280,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
@@ -5251,7 +5295,7 @@
       <c r="L13" s="62"/>
     </row>
     <row r="14" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="11" t="s">
         <v>13</v>
       </c>
@@ -5266,7 +5310,7 @@
       <c r="L14" s="62"/>
     </row>
     <row r="15" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -5289,7 +5333,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
@@ -5304,7 +5348,7 @@
       <c r="L16" s="62"/>
     </row>
     <row r="17" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
@@ -5319,7 +5363,7 @@
       <c r="L17" s="62"/>
     </row>
     <row r="18" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -5342,7 +5386,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
@@ -5357,7 +5401,7 @@
       <c r="L19" s="62"/>
     </row>
     <row r="20" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
@@ -5372,7 +5416,7 @@
       <c r="L20" s="62"/>
     </row>
     <row r="21" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5395,7 +5439,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
@@ -5410,7 +5454,7 @@
       <c r="L22" s="62"/>
     </row>
     <row r="23" spans="2:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
@@ -5425,7 +5469,7 @@
       <c r="L23" s="62"/>
     </row>
     <row r="24" spans="2:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -5448,7 +5492,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="11" t="s">
         <v>12</v>
       </c>
@@ -5463,7 +5507,7 @@
       <c r="L25" s="62"/>
     </row>
     <row r="26" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="11" t="s">
         <v>13</v>
       </c>
@@ -5478,36 +5522,46 @@
       <c r="L26" s="62"/>
     </row>
     <row r="27" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="43">
+      <c r="I27" s="46">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="46">
         <f>SUM(J9:K26)</f>
-        <v>26.1</v>
-      </c>
-      <c r="K27" s="43"/>
+        <v>36.400000000000006</v>
+      </c>
+      <c r="K27" s="46"/>
       <c r="L27" s="63"/>
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="64"/>
     </row>
     <row r="29" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -5516,21 +5570,11 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/daily-scrum-meeting-template.xlsx
+++ b/daily-scrum-meeting-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{C5B85591-B876-4F1D-A9D8-37A95A0E09F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFACA2B0-C233-41A8-85E7-A690359AF99E}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{C5B85591-B876-4F1D-A9D8-37A95A0E09F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F95351-7065-4270-9646-3AAB27331A8A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT DETAILS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="58">
   <si>
     <t>DAILY SCRUM TEMPLATE</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Lectures and Meetings.  PM Forum. Emails to clients and  course tutors</t>
+  </si>
+  <si>
+    <t>Updated the spreadsheets</t>
   </si>
 </sst>
 </file>
@@ -587,6 +590,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -626,15 +653,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,21 +661,6 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,6 +678,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1037,7 +1044,7 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="M27" sqref="B9:M29"/>
     </sheetView>
   </sheetViews>
@@ -1073,18 +1080,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1123,7 +1130,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1134,25 +1141,25 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="26">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29">
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 8 06-03-23'!J9:K11)</f>
-        <v>20.6</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="42" t="e">
+        <v>22.6</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="47" t="e">
         <f>I9/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
-        <v>0.56593406593406592</v>
+        <v>0.58854166666666663</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -1161,14 +1168,14 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -1177,14 +1184,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -1195,25 +1202,25 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26">
-        <v>0</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="I12" s="34">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 8 06-03-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="42" t="e">
-        <f t="shared" ref="L12:L29" si="0">I12/$I$27*100</f>
+      <c r="K12" s="38"/>
+      <c r="L12" s="47" t="e">
+        <f t="shared" ref="L12" si="0">I12/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="1">J12/$J$27</f>
-        <v>0.28296703296703296</v>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="1">J12/$J$27</f>
+        <v>0.26822916666666663</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1222,14 +1229,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -1238,14 +1245,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -1256,25 +1263,25 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 8 06-03-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="42" t="e">
-        <f t="shared" ref="L15:L29" si="2">I15/$I$27*100</f>
+      <c r="K15" s="38"/>
+      <c r="L15" s="47" t="e">
+        <f t="shared" ref="L15" si="2">I15/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="3">J15/$J$27</f>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1283,14 +1290,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1299,14 +1306,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -1317,25 +1324,25 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 8 06-03-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="42" t="e">
-        <f t="shared" ref="L18:L29" si="4">I18/$I$27*100</f>
+      <c r="K18" s="38"/>
+      <c r="L18" s="47" t="e">
+        <f t="shared" ref="L18" si="4">I18/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="5">J18/$J$27</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -1344,14 +1351,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -1360,14 +1367,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -1378,25 +1385,25 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29">
+      <c r="I21" s="34">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 8 06-03-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="42" t="e">
-        <f t="shared" ref="L21:L29" si="6">I21/$I$27*100</f>
+      <c r="K21" s="38"/>
+      <c r="L21" s="47" t="e">
+        <f t="shared" ref="L21" si="6">I21/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="7">J21/$J$27</f>
-        <v>0.15109890109890106</v>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="7">J21/$J$27</f>
+        <v>0.14322916666666666</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -1405,14 +1412,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -1421,14 +1428,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -1439,25 +1446,25 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29">
+      <c r="I24" s="34">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 8 06-03-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="42" t="e">
-        <f t="shared" ref="L24:L29" si="8">I24/$I$27*100</f>
+      <c r="K24" s="38"/>
+      <c r="L24" s="47" t="e">
+        <f t="shared" ref="L24" si="8">I24/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="9">J24/$J$27</f>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -1466,14 +1473,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -1482,68 +1489,94 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
-        <v>36.400000000000006</v>
-      </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="42" t="e">
-        <f t="shared" ref="L27:L29" si="10">I27/$I$27*100</f>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="K27" s="44"/>
+      <c r="L27" s="47" t="e">
+        <f t="shared" ref="L27" si="10">I27/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="11">J27/$J$27</f>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="11">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
     <mergeCell ref="M24:M26"/>
     <mergeCell ref="M27:M29"/>
     <mergeCell ref="J27:K29"/>
@@ -1553,32 +1586,6 @@
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="M18:M20"/>
     <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1637,18 +1644,18 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1689,7 +1696,7 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1710,25 +1717,25 @@
       <c r="H9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="34">
         <v>0.5</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="37">
         <f>I9</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="35">
+      <c r="K9" s="38"/>
+      <c r="L9" s="43">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -1747,14 +1754,14 @@
       <c r="H10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -1773,14 +1780,14 @@
       <c r="H11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -1791,23 +1798,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="29">
+      <c r="I12" s="34"/>
+      <c r="J12" s="37">
         <f>I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="35">
+      <c r="K12" s="38"/>
+      <c r="L12" s="43">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="0">J12/$J$27</f>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -1816,14 +1823,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -1832,14 +1839,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -1850,23 +1857,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>I15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="35">
+      <c r="K15" s="38"/>
+      <c r="L15" s="43">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="1">J15/$J$27</f>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1875,14 +1882,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1891,14 +1898,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -1909,23 +1916,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="35">
+      <c r="K18" s="38"/>
+      <c r="L18" s="43">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="2">J18/$J$27</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -1934,14 +1941,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -1950,14 +1957,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -1968,23 +1975,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="29">
+      <c r="I21" s="34"/>
+      <c r="J21" s="37">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="35">
+      <c r="K21" s="38"/>
+      <c r="L21" s="43">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="3">J21/$J$27</f>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -1993,14 +2000,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -2009,14 +2016,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -2027,23 +2034,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>I24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="35">
+      <c r="K24" s="38"/>
+      <c r="L24" s="43">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="4">J24/$J$27</f>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2052,14 +2059,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2068,80 +2075,83 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>0.5</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
         <v>0.5</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="38">
+      <c r="K27" s="44"/>
+      <c r="L27" s="46">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="5">J27/$J$27</f>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -2150,21 +2160,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2223,18 +2230,18 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2275,7 +2282,7 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -2296,25 +2303,25 @@
       <c r="H9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="34">
         <v>5.45</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 1 16-01-23'!J9:K11)</f>
         <v>5.95</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="35">
+      <c r="K9" s="38"/>
+      <c r="L9" s="43">
         <f>I9/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -2333,14 +2340,14 @@
       <c r="H10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -2359,14 +2366,14 @@
       <c r="H11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -2377,23 +2384,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="29">
+      <c r="I12" s="34"/>
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 1 16-01-23'!J12:K14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="35">
+      <c r="K12" s="38"/>
+      <c r="L12" s="43">
         <f>I12/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="0">J12/$J$27</f>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -2402,14 +2409,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -2418,14 +2425,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -2436,23 +2443,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 1 16-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="35">
+      <c r="K15" s="38"/>
+      <c r="L15" s="43">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="1">J15/$J$27</f>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -2461,14 +2468,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -2477,14 +2484,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -2495,23 +2502,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 1 16-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="35">
+      <c r="K18" s="38"/>
+      <c r="L18" s="43">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="2">J18/$J$27</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -2520,14 +2527,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -2536,14 +2543,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -2554,23 +2561,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="29">
+      <c r="I21" s="34"/>
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 1 16-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="35">
+      <c r="K21" s="38"/>
+      <c r="L21" s="43">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="3">J21/$J$27</f>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -2579,14 +2586,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -2595,14 +2602,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -2613,23 +2620,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 1 16-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="35">
+      <c r="K24" s="38"/>
+      <c r="L24" s="43">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="4">J24/$J$27</f>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2638,14 +2645,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2654,80 +2661,83 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>5.45</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
         <v>5.95</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="38">
+      <c r="K27" s="44"/>
+      <c r="L27" s="46">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="5">J27/$J$27</f>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -2736,21 +2746,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2809,18 +2816,18 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2861,13 +2868,13 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="25" t="s">
@@ -2882,25 +2889,25 @@
       <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="34">
         <v>5.45</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 2 23-01-23'!J9:K11)</f>
         <v>11.4</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="35">
+      <c r="K9" s="38"/>
+      <c r="L9" s="43">
         <f>I9/$I$27*100</f>
         <v>52.153110047846894</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
         <v>0.69512195121951226</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -2919,14 +2926,14 @@
       <c r="H10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -2945,14 +2952,14 @@
       <c r="H11" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -2967,25 +2974,25 @@
       <c r="H12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="34">
         <v>5</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 2 23-01-23'!J12:K14)</f>
         <v>5</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="35">
+      <c r="K12" s="38"/>
+      <c r="L12" s="43">
         <f>I12/$I$27*100</f>
         <v>47.846889952153113</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="0">J12/$J$27</f>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0.30487804878048785</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -2998,14 +3005,14 @@
         <v>50</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -3014,14 +3021,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -3032,23 +3039,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 2 23-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="35">
+      <c r="K15" s="38"/>
+      <c r="L15" s="43">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="1">J15/$J$27</f>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -3057,14 +3064,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -3073,14 +3080,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -3091,23 +3098,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 2 23-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="35">
+      <c r="K18" s="38"/>
+      <c r="L18" s="43">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="2">J18/$J$27</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -3116,14 +3123,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -3132,14 +3139,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -3150,23 +3157,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="29">
+      <c r="I21" s="34"/>
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 2 23-01-23'!J21:K23)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="35">
+      <c r="K21" s="38"/>
+      <c r="L21" s="43">
         <f>I21/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="3">J21/$J$27</f>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -3175,14 +3182,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -3191,14 +3198,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -3209,23 +3216,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 2 23-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="35">
+      <c r="K24" s="38"/>
+      <c r="L24" s="43">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="4">J24/$J$27</f>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -3234,14 +3241,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -3250,80 +3257,83 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>10.45</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="38">
+      <c r="K27" s="44"/>
+      <c r="L27" s="46">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="5">J27/$J$27</f>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -3332,21 +3342,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3405,18 +3412,18 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3457,8 +3464,8 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -3479,26 +3486,26 @@
       <c r="H9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="34">
         <v>4.45</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 3 30-01-23'!J9:K11)</f>
         <v>15.850000000000001</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="35">
+      <c r="K9" s="38"/>
+      <c r="L9" s="43">
         <f>I9/$I$27*100</f>
         <v>41.395348837209305</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
         <v>0.58379373848987104</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -3517,15 +3524,15 @@
       <c r="H10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -3544,15 +3551,15 @@
       <c r="H11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -3567,26 +3574,26 @@
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26">
+      <c r="I12" s="34">
         <v>3.3</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 3 30-01-23'!J12:K14)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="35">
+      <c r="K12" s="38"/>
+      <c r="L12" s="43">
         <f>I12/$I$27*100</f>
         <v>30.697674418604649</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="0">J12/$J$27</f>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="0">J12/$J$27</f>
         <v>0.30570902394106814</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -3601,15 +3608,15 @@
         <v>54</v>
       </c>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -3618,15 +3625,15 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -3637,24 +3644,24 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 3 30-01-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="35">
+      <c r="K15" s="38"/>
+      <c r="L15" s="43">
         <f>I15/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="1">J15/$J$27</f>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -3663,15 +3670,15 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="45"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -3680,15 +3687,15 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="45"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -3699,24 +3706,24 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 3 30-01-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="35">
+      <c r="K18" s="38"/>
+      <c r="L18" s="43">
         <f>I18/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="2">J18/$J$27</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -3725,15 +3732,15 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -3742,15 +3749,15 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -3761,26 +3768,26 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26">
+      <c r="I21" s="34">
         <v>3</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 3 30-01-23'!J21:K23)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="35">
+      <c r="K21" s="38"/>
+      <c r="L21" s="43">
         <f>I21/$I$27*100</f>
         <v>27.906976744186046</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="3">J21/$J$27</f>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="3">J21/$J$27</f>
         <v>0.11049723756906077</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="45"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -3791,15 +3798,15 @@
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="45"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -3808,15 +3815,15 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -3827,24 +3834,24 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 3 30-01-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="35">
+      <c r="K24" s="38"/>
+      <c r="L24" s="43">
         <f>I24/$I$27*100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="4">J24/$J$27</f>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="45"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -3853,15 +3860,15 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="45"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -3870,83 +3877,86 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>10.75</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
         <v>27.150000000000002</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="38">
+      <c r="K27" s="44"/>
+      <c r="L27" s="46">
         <f>I27/$I$27*100</f>
         <v>100</v>
       </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="5">J27/$J$27</f>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="46"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="46"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -3955,21 +3965,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4029,18 +4036,18 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4081,7 +4088,7 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -4102,25 +4109,25 @@
       <c r="H9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="34">
         <v>4.75</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 4 06-02-23'!J9:K11)</f>
         <v>20.6</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="42">
+      <c r="K9" s="38"/>
+      <c r="L9" s="47">
         <f>I9/$I$27</f>
         <v>0.51351351351351349</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
         <v>0.56593406593406592</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -4137,14 +4144,14 @@
       <c r="H10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -4163,14 +4170,14 @@
       <c r="H11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -4181,25 +4188,25 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26">
+      <c r="I12" s="34">
         <v>2</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 4 06-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="42">
-        <f t="shared" ref="L12:L29" si="0">I12/$I$27</f>
+      <c r="K12" s="38"/>
+      <c r="L12" s="47">
+        <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="1">J12/$J$27</f>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="1">J12/$J$27</f>
         <v>0.28296703296703296</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -4210,14 +4217,14 @@
       <c r="H13" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -4226,14 +4233,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -4244,23 +4251,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 4 06-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="42">
-        <f t="shared" ref="L15:L29" si="2">I15/$I$27</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="3">J15/$J$27</f>
+      <c r="K15" s="38"/>
+      <c r="L15" s="47">
+        <f t="shared" ref="L15" si="2">I15/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -4269,14 +4276,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -4285,14 +4292,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -4303,23 +4310,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 4 06-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="42">
-        <f t="shared" ref="L18:L29" si="4">I18/$I$27</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="5">J18/$J$27</f>
+      <c r="K18" s="38"/>
+      <c r="L18" s="47">
+        <f t="shared" ref="L18" si="4">I18/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -4328,14 +4335,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -4344,14 +4351,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -4362,29 +4369,29 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26">
+      <c r="I21" s="34">
         <v>2.5</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 4 06-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="42">
-        <f t="shared" ref="L21:L29" si="6">I21/$I$27</f>
+      <c r="K21" s="38"/>
+      <c r="L21" s="47">
+        <f t="shared" ref="L21" si="6">I21/$I$27</f>
         <v>0.27027027027027029</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="7">J21/$J$27</f>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="7">J21/$J$27</f>
         <v>0.15109890109890106</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="25"/>
@@ -4393,14 +4400,14 @@
       <c r="H22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -4409,14 +4416,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -4427,23 +4434,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 4 06-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="42">
-        <f t="shared" ref="L24:L29" si="8">I24/$I$27</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="9">J24/$J$27</f>
+      <c r="K24" s="38"/>
+      <c r="L24" s="47">
+        <f t="shared" ref="L24" si="8">I24/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -4452,14 +4459,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -4468,80 +4475,83 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>9.25</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
         <v>36.400000000000006</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="42">
-        <f t="shared" ref="L27:L29" si="10">I27/$I$27</f>
+      <c r="K27" s="44"/>
+      <c r="L27" s="47">
+        <f t="shared" ref="L27" si="10">I27/$I$27</f>
         <v>1</v>
       </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="11">J27/$J$27</f>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="11">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -4550,21 +4560,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4577,8 +4584,8 @@
   </sheetPr>
   <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M27" sqref="B9:M29"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4622,18 +4629,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4674,34 +4681,38 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="29">
+      <c r="I9" s="34">
+        <v>2</v>
+      </c>
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 5 13-02-23'!J9:K11)</f>
-        <v>20.6</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="42" t="e">
+        <v>22.6</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="47">
         <f>I9/$I$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="46">
+        <v>1</v>
+      </c>
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
-        <v>0.56593406593406592</v>
+        <v>0.58854166666666663</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -4710,14 +4721,14 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -4726,14 +4737,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -4744,23 +4755,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="29">
+      <c r="I12" s="34"/>
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 5 13-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="42" t="e">
+      <c r="K12" s="38"/>
+      <c r="L12" s="47">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="1">J12/$J$27</f>
-        <v>0.28296703296703296</v>
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="1">J12/$J$27</f>
+        <v>0.26822916666666663</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -4769,14 +4780,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -4785,14 +4796,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -4803,23 +4814,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 5 13-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="42" t="e">
+      <c r="K15" s="38"/>
+      <c r="L15" s="47">
         <f t="shared" ref="L15" si="2">I15/$I$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="3">J15/$J$27</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -4828,14 +4839,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -4844,14 +4855,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -4862,23 +4873,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 5 13-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="42" t="e">
+      <c r="K18" s="38"/>
+      <c r="L18" s="47">
         <f t="shared" ref="L18" si="4">I18/$I$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="5">J18/$J$27</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -4887,14 +4898,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -4903,14 +4914,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -4921,23 +4932,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="29">
+      <c r="I21" s="34"/>
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 5 13-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="42" t="e">
+      <c r="K21" s="38"/>
+      <c r="L21" s="47">
         <f t="shared" ref="L21" si="6">I21/$I$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="7">J21/$J$27</f>
-        <v>0.15109890109890106</v>
+        <v>0</v>
+      </c>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="7">J21/$J$27</f>
+        <v>0.14322916666666666</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -4946,14 +4957,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -4962,14 +4973,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -4980,23 +4991,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 5 13-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="42" t="e">
+      <c r="K24" s="38"/>
+      <c r="L24" s="47">
         <f t="shared" ref="L24" si="8">I24/$I$27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="9">J24/$J$27</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -5005,14 +5016,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -5021,80 +5032,83 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="36">
+        <v>2</v>
+      </c>
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
-        <v>36.400000000000006</v>
-      </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37" t="e">
+        <v>38.400000000000006</v>
+      </c>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45">
         <f>I27/$I$27*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="10">J27/$J$27</f>
+        <v>100</v>
+      </c>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="10">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -5103,21 +5117,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5175,18 +5186,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5227,7 +5238,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -5238,23 +5249,23 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="29">
+      <c r="I9" s="34"/>
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 6 20-02-23 '!J9:K11)</f>
-        <v>20.6</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="42" t="e">
+        <v>22.6</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="47" t="e">
         <f>I9/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
-        <v>0.56593406593406592</v>
+        <v>0.58854166666666663</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -5263,14 +5274,14 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -5279,14 +5290,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -5297,23 +5308,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="29">
+      <c r="I12" s="34"/>
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 6 20-02-23 '!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="42" t="e">
+      <c r="K12" s="38"/>
+      <c r="L12" s="47" t="e">
         <f t="shared" ref="L12" si="0">I12/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="1">J12/$J$27</f>
-        <v>0.28296703296703296</v>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="1">J12/$J$27</f>
+        <v>0.26822916666666663</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -5322,14 +5333,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -5338,14 +5349,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -5356,23 +5367,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 6 20-02-23 '!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="42" t="e">
+      <c r="K15" s="38"/>
+      <c r="L15" s="47" t="e">
         <f t="shared" ref="L15" si="2">I15/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="3">J15/$J$27</f>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="3">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -5381,14 +5392,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -5397,14 +5408,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -5415,23 +5426,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 6 20-02-23 '!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="42" t="e">
+      <c r="K18" s="38"/>
+      <c r="L18" s="47" t="e">
         <f t="shared" ref="L18" si="4">I18/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="5">J18/$J$27</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="5">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -5440,14 +5451,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -5456,14 +5467,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -5474,23 +5485,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="29">
+      <c r="I21" s="34"/>
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 6 20-02-23 '!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="42" t="e">
+      <c r="K21" s="38"/>
+      <c r="L21" s="47" t="e">
         <f t="shared" ref="L21" si="6">I21/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="7">J21/$J$27</f>
-        <v>0.15109890109890106</v>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="7">J21/$J$27</f>
+        <v>0.14322916666666666</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -5499,14 +5510,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -5515,14 +5526,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -5533,23 +5544,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 6 20-02-23 '!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="42" t="e">
+      <c r="K24" s="38"/>
+      <c r="L24" s="47" t="e">
         <f t="shared" ref="L24" si="8">I24/$I$27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="9">J24/$J$27</f>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="9">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -5558,14 +5569,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -5574,77 +5585,80 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
-        <v>36.400000000000006</v>
-      </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="10">J27/$J$27</f>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="K27" s="44"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="10">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -5653,21 +5667,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
-    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5716,18 +5727,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -5766,7 +5777,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -5777,23 +5788,23 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="29">
+      <c r="I9" s="34"/>
+      <c r="J9" s="37">
         <f>SUM(I9,'WK 7 27-02-23'!J9:K11)</f>
-        <v>20.6</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="42" t="e">
+        <v>22.6</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="47" t="e">
         <f>I9/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="29">
         <f>J9/$J$27</f>
-        <v>0.56593406593406592</v>
+        <v>0.58854166666666663</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="47"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
@@ -5802,14 +5813,14 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="46"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="47"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
@@ -5818,14 +5829,14 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -5836,23 +5847,23 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="29">
+      <c r="I12" s="34"/>
+      <c r="J12" s="37">
         <f>SUM(I12,'WK 7 27-02-23'!J12:K14)</f>
         <v>10.3</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="42" t="e">
+      <c r="K12" s="38"/>
+      <c r="L12" s="47" t="e">
         <f>I12/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="46">
-        <f t="shared" ref="M12:M29" si="0">J12/$J$27</f>
-        <v>0.28296703296703296</v>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12" si="0">J12/$J$27</f>
+        <v>0.26822916666666663</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="47"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -5861,14 +5872,14 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="46"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="47"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -5877,14 +5888,14 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -5895,23 +5906,23 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29">
+      <c r="I15" s="34"/>
+      <c r="J15" s="37">
         <f>SUM(I15,'WK 7 27-02-23'!J15:K17)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="42" t="e">
+      <c r="K15" s="38"/>
+      <c r="L15" s="47" t="e">
         <f>I15/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="46">
-        <f t="shared" ref="M15:M29" si="1">J15/$J$27</f>
+      <c r="M15" s="29">
+        <f t="shared" ref="M15" si="1">J15/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="47"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
@@ -5920,14 +5931,14 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="46"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="47"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
@@ -5936,14 +5947,14 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -5954,23 +5965,23 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29">
+      <c r="I18" s="34"/>
+      <c r="J18" s="37">
         <f>SUM(I18,'WK 7 27-02-23'!J18:K20)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="42" t="e">
+      <c r="K18" s="38"/>
+      <c r="L18" s="47" t="e">
         <f>I18/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="46">
-        <f t="shared" ref="M18:M29" si="2">J18/$J$27</f>
+      <c r="M18" s="29">
+        <f t="shared" ref="M18" si="2">J18/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="47"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
@@ -5979,14 +5990,14 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="46"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="47"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>13</v>
       </c>
@@ -5995,14 +6006,14 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -6013,23 +6024,23 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="29">
+      <c r="I21" s="34"/>
+      <c r="J21" s="37">
         <f>SUM(I21,'WK 7 27-02-23'!J21:K23)</f>
         <v>5.5</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="42" t="e">
+      <c r="K21" s="38"/>
+      <c r="L21" s="47" t="e">
         <f>I21/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="46">
-        <f t="shared" ref="M21:M29" si="3">J21/$J$27</f>
-        <v>0.15109890109890106</v>
+      <c r="M21" s="29">
+        <f t="shared" ref="M21" si="3">J21/$J$27</f>
+        <v>0.14322916666666666</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="47"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="24" t="s">
         <v>12</v>
       </c>
@@ -6038,14 +6049,14 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="46"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="2:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="47"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>13</v>
       </c>
@@ -6054,14 +6065,14 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -6072,23 +6083,23 @@
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="29">
+      <c r="I24" s="34"/>
+      <c r="J24" s="37">
         <f>SUM(I24,'WK 7 27-02-23'!J24:K26)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="42" t="e">
+      <c r="K24" s="38"/>
+      <c r="L24" s="47" t="e">
         <f>I24/$I$27*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="46">
-        <f t="shared" ref="M24:M29" si="4">J24/$J$27</f>
+      <c r="M24" s="29">
+        <f t="shared" ref="M24" si="4">J24/$J$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="47"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
@@ -6097,14 +6108,14 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="46"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>13</v>
       </c>
@@ -6113,77 +6124,80 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="46"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="36">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="44">
         <f>SUM(I9:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="44">
         <f>SUM(J9:K26)</f>
-        <v>36.400000000000006</v>
-      </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="46">
-        <f t="shared" ref="M27:M29" si="5">J27/$J$27</f>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="K27" s="44"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27" si="5">J27/$J$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="46"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="46"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:K23"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:K14"/>
@@ -6192,21 +6206,18 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K29"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M21:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
